--- a/fuentes/contenidos/grado08/guion10/Solicitudes_graficas_MA_08_10_CO/SolicitudGrafica_MA_08_10_CO_REC80.xlsx
+++ b/fuentes/contenidos/grado08/guion10/Solicitudes_graficas_MA_08_10_CO/SolicitudGrafica_MA_08_10_CO_REC80.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdgarJosué\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion10\Solicitudes_graficas_MA_08_10_CO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="194">
   <si>
     <t>Fecha:</t>
   </si>
@@ -593,19 +598,22 @@
     <t xml:space="preserve">Descripcion       </t>
   </si>
   <si>
-    <t>MA_08_10_CO_REC_80</t>
-  </si>
-  <si>
     <t>Clasifica poliedros cóncavos y poliedros convexos</t>
   </si>
   <si>
-    <t>Lizzie Zambrano</t>
-  </si>
-  <si>
     <t>Tomado de Google. Reelaborar imagen</t>
   </si>
   <si>
     <t>Tomado de Google. Reelaborar image</t>
+  </si>
+  <si>
+    <t>MA_08_10_CO_REC80</t>
+  </si>
+  <si>
+    <t>Ilustración</t>
+  </si>
+  <si>
+    <t>Josué Malagón</t>
   </si>
 </sst>
 </file>
@@ -1904,7 +1912,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2195,13 +2203,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1041400</xdr:colOff>
+          <xdr:colOff>1038225</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -2216,7 +2224,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2224,6 +2232,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2236,13 +2258,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1054100</xdr:colOff>
+          <xdr:colOff>1057275</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>863600</xdr:colOff>
+          <xdr:colOff>866775</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -2257,7 +2279,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2265,6 +2287,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2277,7 +2313,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2298,7 +2334,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2306,6 +2342,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2320,13 +2370,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:colOff>1019175</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2339,7 +2389,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2347,6 +2397,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2359,15 +2423,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:colOff>1019175</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2380,7 +2444,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2388,6 +2452,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2402,13 +2480,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2421,7 +2499,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2429,6 +2507,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2443,13 +2535,13 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2462,7 +2554,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2470,6 +2562,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2802,34 +2908,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16:E17"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.83203125" style="15" customWidth="1"/>
-    <col min="11" max="11" width="29.6640625" style="15" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="34.875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="29.625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="20.375" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="10.83203125" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="2"/>
+    <col min="14" max="15" width="10.875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16" thickBot="1">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2848,7 +2954,7 @@
         <v>Ubicación de la imagen en el recurso M10B</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15">
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>121</v>
@@ -2879,7 +2985,7 @@
         <v>M3A</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15">
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -2889,7 +2995,7 @@
       </c>
       <c r="D3" s="87"/>
       <c r="F3" s="79">
-        <v>42423</v>
+        <v>42435</v>
       </c>
       <c r="G3" s="80"/>
       <c r="H3" s="58"/>
@@ -2910,13 +3016,13 @@
         <v>M5A</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="87"/>
       <c r="E4" s="5"/>
@@ -2942,13 +3048,13 @@
         <v>M6A</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16" thickBot="1">
+    <row r="5" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D5" s="89"/>
       <c r="E5" s="5"/>
@@ -2975,7 +3081,7 @@
         <v>M7A</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16" thickBot="1">
+    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2999,13 +3105,13 @@
         <v>M8A</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="73" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>39</v>
@@ -3028,7 +3134,7 @@
         <v>M9B</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="8" customFormat="1" ht="16" thickBot="1">
+    <row r="8" spans="1:16" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -3055,7 +3161,7 @@
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="38.75" customHeight="1" thickBot="1">
+    <row r="9" spans="1:16" ht="38.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>2</v>
       </c>
@@ -3095,7 +3201,7 @@
         <v>M10B</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" ht="178" customHeight="1">
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="177.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
@@ -3107,13 +3213,15 @@
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso M10B</v>
       </c>
-      <c r="D10" s="63"/>
+      <c r="D10" s="63" t="s">
+        <v>192</v>
+      </c>
       <c r="E10" s="63" t="s">
         <v>155</v>
       </c>
       <c r="F10" s="13" t="str">
         <f t="shared" ref="F10" ca="1" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MA_08_10_CO_REC_80_IMG01.png</v>
+        <v>MA_08_10_CO_REC80_IMG01.png</v>
       </c>
       <c r="G10" s="13" t="str">
         <f ca="1">IF($F10&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3134,7 +3242,7 @@
         <v>M12D</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" ht="171" customHeight="1">
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
@@ -3146,13 +3254,15 @@
         <f t="shared" si="0"/>
         <v>Recurso M10B</v>
       </c>
-      <c r="D11" s="63"/>
+      <c r="D11" s="63" t="s">
+        <v>192</v>
+      </c>
       <c r="E11" s="63" t="s">
         <v>155</v>
       </c>
       <c r="F11" s="13" t="str">
         <f t="shared" ref="F11:F74" ca="1" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MA_08_10_CO_REC_80_IMG02.png</v>
+        <v>MA_08_10_CO_REC80_IMG02.png</v>
       </c>
       <c r="G11" s="13" t="str">
         <f ca="1">IF($F11&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3173,7 +3283,7 @@
         <v>M101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" ht="133" customHeight="1">
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="132.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG03</v>
@@ -3185,13 +3295,15 @@
         <f t="shared" si="0"/>
         <v>Recurso M10B</v>
       </c>
-      <c r="D12" s="63"/>
+      <c r="D12" s="63" t="s">
+        <v>192</v>
+      </c>
       <c r="E12" s="63" t="s">
         <v>155</v>
       </c>
       <c r="F12" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>MA_08_10_CO_REC_80_IMG03.png</v>
+        <v>MA_08_10_CO_REC80_IMG03.png</v>
       </c>
       <c r="G12" s="13" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3207,14 +3319,14 @@
       </c>
       <c r="J12" s="64"/>
       <c r="K12" s="64" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
         <v>Diaporama F1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="150" customHeight="1">
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG04</v>
@@ -3226,13 +3338,15 @@
         <f t="shared" si="0"/>
         <v>Recurso M10B</v>
       </c>
-      <c r="D13" s="63"/>
+      <c r="D13" s="63" t="s">
+        <v>192</v>
+      </c>
       <c r="E13" s="63" t="s">
         <v>155</v>
       </c>
       <c r="F13" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>MA_08_10_CO_REC_80_IMG04.png</v>
+        <v>MA_08_10_CO_REC80_IMG04.png</v>
       </c>
       <c r="G13" s="13" t="str">
         <f ca="1">IF($F13&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3248,14 +3362,14 @@
       </c>
       <c r="J13" s="64"/>
       <c r="K13" s="64" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O13" s="2" t="str">
         <f>'Definición técnica de imagenes'!A19</f>
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="171" customHeight="1">
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG05</v>
@@ -3267,13 +3381,15 @@
         <f t="shared" si="0"/>
         <v>Recurso M10B</v>
       </c>
-      <c r="D14" s="63"/>
+      <c r="D14" s="63" t="s">
+        <v>192</v>
+      </c>
       <c r="E14" s="63" t="s">
         <v>155</v>
       </c>
       <c r="F14" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>MA_08_10_CO_REC_80_IMG05.png</v>
+        <v>MA_08_10_CO_REC80_IMG05.png</v>
       </c>
       <c r="G14" s="13" t="str">
         <f ca="1">IF($F14&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3289,14 +3405,14 @@
       </c>
       <c r="J14" s="64"/>
       <c r="K14" s="64" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O14" s="2" t="str">
         <f>'Definición técnica de imagenes'!A22</f>
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="115" customHeight="1">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="114.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG06</v>
@@ -3308,13 +3424,15 @@
         <f t="shared" si="0"/>
         <v>Recurso M10B</v>
       </c>
-      <c r="D15" s="63"/>
+      <c r="D15" s="63" t="s">
+        <v>192</v>
+      </c>
       <c r="E15" s="63" t="s">
         <v>155</v>
       </c>
       <c r="F15" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>MA_08_10_CO_REC_80_IMG06.png</v>
+        <v>MA_08_10_CO_REC80_IMG06.png</v>
       </c>
       <c r="G15" s="13" t="str">
         <f ca="1">IF($F15&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3330,14 +3448,14 @@
       </c>
       <c r="J15" s="66"/>
       <c r="K15" s="64" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O15" s="2" t="str">
         <f>'Definición técnica de imagenes'!A24</f>
         <v>F6B</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="162" customHeight="1">
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3372,7 +3490,7 @@
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="178" customHeight="1">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="177.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3407,7 +3525,7 @@
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="124" customHeight="1">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="123.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3442,7 +3560,7 @@
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="173" customHeight="1">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="173.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v/>
@@ -3477,7 +3595,7 @@
         <v>F10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" ht="141" customHeight="1">
+    <row r="20" spans="1:15" s="11" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3512,7 +3630,7 @@
         <v>F10B</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" ht="144" customHeight="1">
+    <row r="21" spans="1:15" s="11" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3547,7 +3665,7 @@
         <v>F11</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" ht="149" customHeight="1">
+    <row r="22" spans="1:15" s="11" customFormat="1" ht="149.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3582,7 +3700,7 @@
         <v>F12</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" ht="207" customHeight="1">
+    <row r="23" spans="1:15" s="11" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3617,7 +3735,7 @@
         <v>F13</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="11" customFormat="1" ht="181" customHeight="1">
+    <row r="24" spans="1:15" s="11" customFormat="1" ht="180.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3652,7 +3770,7 @@
         <v>F13B</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="11" customFormat="1" ht="165" customHeight="1">
+    <row r="25" spans="1:15" s="11" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3683,7 +3801,7 @@
       <c r="J25" s="63"/>
       <c r="K25" s="64"/>
     </row>
-    <row r="26" spans="1:15" s="11" customFormat="1" ht="190" customHeight="1">
+    <row r="26" spans="1:15" s="11" customFormat="1" ht="189.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3714,7 +3832,7 @@
       <c r="J26" s="63"/>
       <c r="K26" s="64"/>
     </row>
-    <row r="27" spans="1:15" s="11" customFormat="1" ht="135" customHeight="1">
+    <row r="27" spans="1:15" s="11" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3746,7 +3864,7 @@
       <c r="K27" s="64"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" s="11" customFormat="1" ht="138" customHeight="1">
+    <row r="28" spans="1:15" s="11" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3777,7 +3895,7 @@
       <c r="J28" s="64"/>
       <c r="K28" s="64"/>
     </row>
-    <row r="29" spans="1:15" s="11" customFormat="1" ht="91" customHeight="1">
+    <row r="29" spans="1:15" s="11" customFormat="1" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3808,7 +3926,7 @@
       <c r="J29" s="64"/>
       <c r="K29" s="64"/>
     </row>
-    <row r="30" spans="1:15" s="11" customFormat="1" ht="76" customHeight="1">
+    <row r="30" spans="1:15" s="11" customFormat="1" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3839,7 +3957,7 @@
       <c r="J30" s="64"/>
       <c r="K30" s="64"/>
     </row>
-    <row r="31" spans="1:15" s="11" customFormat="1" ht="81" customHeight="1">
+    <row r="31" spans="1:15" s="11" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3870,7 +3988,7 @@
       <c r="J31" s="64"/>
       <c r="K31" s="64"/>
     </row>
-    <row r="32" spans="1:15" s="11" customFormat="1" ht="124" customHeight="1">
+    <row r="32" spans="1:15" s="11" customFormat="1" ht="123.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3901,7 +4019,7 @@
       <c r="J32" s="64"/>
       <c r="K32" s="64"/>
     </row>
-    <row r="33" spans="1:15" s="11" customFormat="1" ht="144" customHeight="1">
+    <row r="33" spans="1:15" s="11" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3932,7 +4050,7 @@
       <c r="J33" s="64"/>
       <c r="K33" s="64"/>
     </row>
-    <row r="34" spans="1:15" s="11" customFormat="1" ht="69" customHeight="1">
+    <row r="34" spans="1:15" s="11" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3964,7 +4082,7 @@
       <c r="K34" s="64"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" s="11" customFormat="1" ht="147" customHeight="1">
+    <row r="35" spans="1:15" s="11" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3996,7 +4114,7 @@
       <c r="K35" s="65"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" s="11" customFormat="1" ht="149" customHeight="1">
+    <row r="36" spans="1:15" s="11" customFormat="1" ht="149.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4028,7 +4146,7 @@
       <c r="K36" s="65"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" s="11" customFormat="1" ht="111" customHeight="1">
+    <row r="37" spans="1:15" s="11" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4059,7 +4177,7 @@
       <c r="J37" s="69"/>
       <c r="K37" s="65"/>
     </row>
-    <row r="38" spans="1:15" s="11" customFormat="1" ht="113" customHeight="1">
+    <row r="38" spans="1:15" s="11" customFormat="1" ht="113.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4090,7 +4208,7 @@
       <c r="J38" s="70"/>
       <c r="K38" s="65"/>
     </row>
-    <row r="39" spans="1:15" s="11" customFormat="1" ht="131" customHeight="1">
+    <row r="39" spans="1:15" s="11" customFormat="1" ht="131.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4121,7 +4239,7 @@
       <c r="J39" s="63"/>
       <c r="K39" s="65"/>
     </row>
-    <row r="40" spans="1:15" s="11" customFormat="1">
+    <row r="40" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4152,7 +4270,7 @@
       <c r="J40" s="63"/>
       <c r="K40" s="65"/>
     </row>
-    <row r="41" spans="1:15" s="11" customFormat="1">
+    <row r="41" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4183,7 +4301,7 @@
       <c r="J41" s="63"/>
       <c r="K41" s="65"/>
     </row>
-    <row r="42" spans="1:15" s="11" customFormat="1">
+    <row r="42" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4214,7 +4332,7 @@
       <c r="J42" s="63"/>
       <c r="K42" s="65"/>
     </row>
-    <row r="43" spans="1:15" s="11" customFormat="1">
+    <row r="43" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4245,7 +4363,7 @@
       <c r="J43" s="63"/>
       <c r="K43" s="65"/>
     </row>
-    <row r="44" spans="1:15" s="11" customFormat="1">
+    <row r="44" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4276,7 +4394,7 @@
       <c r="J44" s="63"/>
       <c r="K44" s="65"/>
     </row>
-    <row r="45" spans="1:15" s="11" customFormat="1">
+    <row r="45" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4307,7 +4425,7 @@
       <c r="J45" s="63"/>
       <c r="K45" s="65"/>
     </row>
-    <row r="46" spans="1:15" s="11" customFormat="1">
+    <row r="46" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4338,7 +4456,7 @@
       <c r="J46" s="63"/>
       <c r="K46" s="65"/>
     </row>
-    <row r="47" spans="1:15" s="11" customFormat="1">
+    <row r="47" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4369,7 +4487,7 @@
       <c r="J47" s="63"/>
       <c r="K47" s="65"/>
     </row>
-    <row r="48" spans="1:15" s="11" customFormat="1">
+    <row r="48" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4400,7 +4518,7 @@
       <c r="J48" s="63"/>
       <c r="K48" s="65"/>
     </row>
-    <row r="49" spans="1:11" s="11" customFormat="1">
+    <row r="49" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4431,7 +4549,7 @@
       <c r="J49" s="63"/>
       <c r="K49" s="65"/>
     </row>
-    <row r="50" spans="1:11" s="11" customFormat="1">
+    <row r="50" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4462,7 +4580,7 @@
       <c r="J50" s="63"/>
       <c r="K50" s="65"/>
     </row>
-    <row r="51" spans="1:11" s="11" customFormat="1">
+    <row r="51" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="str">
         <f t="shared" ref="A51:A82" si="8">IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),CONCATENATE(LEFT(A50,3),IF(MID(A50,4,2)+1&lt;10,CONCATENATE("0",MID(A50,4,2)+1),MID(A50,4,2)+1)),"")</f>
         <v/>
@@ -4493,7 +4611,7 @@
       <c r="J51" s="63"/>
       <c r="K51" s="65"/>
     </row>
-    <row r="52" spans="1:11" s="11" customFormat="1">
+    <row r="52" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4524,7 +4642,7 @@
       <c r="J52" s="63"/>
       <c r="K52" s="65"/>
     </row>
-    <row r="53" spans="1:11" s="11" customFormat="1">
+    <row r="53" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4555,7 +4673,7 @@
       <c r="J53" s="63"/>
       <c r="K53" s="65"/>
     </row>
-    <row r="54" spans="1:11" s="11" customFormat="1">
+    <row r="54" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4586,7 +4704,7 @@
       <c r="J54" s="63"/>
       <c r="K54" s="65"/>
     </row>
-    <row r="55" spans="1:11" s="11" customFormat="1">
+    <row r="55" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4617,7 +4735,7 @@
       <c r="J55" s="63"/>
       <c r="K55" s="65"/>
     </row>
-    <row r="56" spans="1:11" s="11" customFormat="1">
+    <row r="56" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4648,7 +4766,7 @@
       <c r="J56" s="63"/>
       <c r="K56" s="65"/>
     </row>
-    <row r="57" spans="1:11" s="11" customFormat="1">
+    <row r="57" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4679,7 +4797,7 @@
       <c r="J57" s="63"/>
       <c r="K57" s="65"/>
     </row>
-    <row r="58" spans="1:11" s="11" customFormat="1">
+    <row r="58" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4710,7 +4828,7 @@
       <c r="J58" s="63"/>
       <c r="K58" s="65"/>
     </row>
-    <row r="59" spans="1:11" s="11" customFormat="1">
+    <row r="59" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4741,7 +4859,7 @@
       <c r="J59" s="63"/>
       <c r="K59" s="65"/>
     </row>
-    <row r="60" spans="1:11" s="11" customFormat="1">
+    <row r="60" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4772,7 +4890,7 @@
       <c r="J60" s="63"/>
       <c r="K60" s="65"/>
     </row>
-    <row r="61" spans="1:11" s="11" customFormat="1">
+    <row r="61" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4803,7 +4921,7 @@
       <c r="J61" s="63"/>
       <c r="K61" s="65"/>
     </row>
-    <row r="62" spans="1:11" s="11" customFormat="1">
+    <row r="62" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4834,7 +4952,7 @@
       <c r="J62" s="63"/>
       <c r="K62" s="65"/>
     </row>
-    <row r="63" spans="1:11" s="11" customFormat="1">
+    <row r="63" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4865,7 +4983,7 @@
       <c r="J63" s="63"/>
       <c r="K63" s="65"/>
     </row>
-    <row r="64" spans="1:11" s="11" customFormat="1">
+    <row r="64" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4896,7 +5014,7 @@
       <c r="J64" s="63"/>
       <c r="K64" s="65"/>
     </row>
-    <row r="65" spans="1:11" s="11" customFormat="1">
+    <row r="65" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4927,7 +5045,7 @@
       <c r="J65" s="63"/>
       <c r="K65" s="65"/>
     </row>
-    <row r="66" spans="1:11" s="11" customFormat="1">
+    <row r="66" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4958,7 +5076,7 @@
       <c r="J66" s="63"/>
       <c r="K66" s="65"/>
     </row>
-    <row r="67" spans="1:11" s="11" customFormat="1">
+    <row r="67" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4989,7 +5107,7 @@
       <c r="J67" s="63"/>
       <c r="K67" s="65"/>
     </row>
-    <row r="68" spans="1:11" s="11" customFormat="1">
+    <row r="68" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5020,7 +5138,7 @@
       <c r="J68" s="63"/>
       <c r="K68" s="65"/>
     </row>
-    <row r="69" spans="1:11" s="11" customFormat="1">
+    <row r="69" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5051,7 +5169,7 @@
       <c r="J69" s="63"/>
       <c r="K69" s="65"/>
     </row>
-    <row r="70" spans="1:11" s="11" customFormat="1">
+    <row r="70" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5082,7 +5200,7 @@
       <c r="J70" s="63"/>
       <c r="K70" s="65"/>
     </row>
-    <row r="71" spans="1:11" s="11" customFormat="1">
+    <row r="71" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5113,7 +5231,7 @@
       <c r="J71" s="63"/>
       <c r="K71" s="65"/>
     </row>
-    <row r="72" spans="1:11" s="11" customFormat="1">
+    <row r="72" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5144,7 +5262,7 @@
       <c r="J72" s="63"/>
       <c r="K72" s="65"/>
     </row>
-    <row r="73" spans="1:11" s="11" customFormat="1">
+    <row r="73" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5175,7 +5293,7 @@
       <c r="J73" s="63"/>
       <c r="K73" s="65"/>
     </row>
-    <row r="74" spans="1:11" s="11" customFormat="1">
+    <row r="74" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5206,7 +5324,7 @@
       <c r="J74" s="63"/>
       <c r="K74" s="65"/>
     </row>
-    <row r="75" spans="1:11" s="11" customFormat="1">
+    <row r="75" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5237,7 +5355,7 @@
       <c r="J75" s="63"/>
       <c r="K75" s="65"/>
     </row>
-    <row r="76" spans="1:11" s="11" customFormat="1">
+    <row r="76" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5268,7 +5386,7 @@
       <c r="J76" s="63"/>
       <c r="K76" s="65"/>
     </row>
-    <row r="77" spans="1:11" s="11" customFormat="1">
+    <row r="77" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5299,7 +5417,7 @@
       <c r="J77" s="63"/>
       <c r="K77" s="65"/>
     </row>
-    <row r="78" spans="1:11" s="11" customFormat="1">
+    <row r="78" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5330,7 +5448,7 @@
       <c r="J78" s="63"/>
       <c r="K78" s="65"/>
     </row>
-    <row r="79" spans="1:11" s="11" customFormat="1">
+    <row r="79" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5361,7 +5479,7 @@
       <c r="J79" s="63"/>
       <c r="K79" s="65"/>
     </row>
-    <row r="80" spans="1:11" s="11" customFormat="1">
+    <row r="80" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5392,7 +5510,7 @@
       <c r="J80" s="63"/>
       <c r="K80" s="65"/>
     </row>
-    <row r="81" spans="1:11" s="11" customFormat="1">
+    <row r="81" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5423,7 +5541,7 @@
       <c r="J81" s="63"/>
       <c r="K81" s="65"/>
     </row>
-    <row r="82" spans="1:11" s="11" customFormat="1">
+    <row r="82" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5454,7 +5572,7 @@
       <c r="J82" s="63"/>
       <c r="K82" s="65"/>
     </row>
-    <row r="83" spans="1:11" s="11" customFormat="1">
+    <row r="83" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="str">
         <f t="shared" ref="A83:A108" si="12">IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),CONCATENATE(LEFT(A82,3),IF(MID(A82,4,2)+1&lt;10,CONCATENATE("0",MID(A82,4,2)+1),MID(A82,4,2)+1)),"")</f>
         <v/>
@@ -5485,7 +5603,7 @@
       <c r="J83" s="63"/>
       <c r="K83" s="65"/>
     </row>
-    <row r="84" spans="1:11" s="11" customFormat="1">
+    <row r="84" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5516,7 +5634,7 @@
       <c r="J84" s="63"/>
       <c r="K84" s="65"/>
     </row>
-    <row r="85" spans="1:11" s="11" customFormat="1">
+    <row r="85" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5547,7 +5665,7 @@
       <c r="J85" s="63"/>
       <c r="K85" s="65"/>
     </row>
-    <row r="86" spans="1:11" s="11" customFormat="1">
+    <row r="86" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5578,7 +5696,7 @@
       <c r="J86" s="63"/>
       <c r="K86" s="65"/>
     </row>
-    <row r="87" spans="1:11" s="11" customFormat="1">
+    <row r="87" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5609,7 +5727,7 @@
       <c r="J87" s="63"/>
       <c r="K87" s="65"/>
     </row>
-    <row r="88" spans="1:11" s="11" customFormat="1">
+    <row r="88" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5640,7 +5758,7 @@
       <c r="J88" s="63"/>
       <c r="K88" s="65"/>
     </row>
-    <row r="89" spans="1:11" s="11" customFormat="1">
+    <row r="89" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5671,7 +5789,7 @@
       <c r="J89" s="63"/>
       <c r="K89" s="65"/>
     </row>
-    <row r="90" spans="1:11" s="11" customFormat="1">
+    <row r="90" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5702,7 +5820,7 @@
       <c r="J90" s="63"/>
       <c r="K90" s="65"/>
     </row>
-    <row r="91" spans="1:11" s="11" customFormat="1">
+    <row r="91" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5733,7 +5851,7 @@
       <c r="J91" s="63"/>
       <c r="K91" s="65"/>
     </row>
-    <row r="92" spans="1:11" s="11" customFormat="1">
+    <row r="92" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5764,7 +5882,7 @@
       <c r="J92" s="63"/>
       <c r="K92" s="65"/>
     </row>
-    <row r="93" spans="1:11" s="11" customFormat="1">
+    <row r="93" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5795,7 +5913,7 @@
       <c r="J93" s="63"/>
       <c r="K93" s="65"/>
     </row>
-    <row r="94" spans="1:11" s="11" customFormat="1">
+    <row r="94" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5826,7 +5944,7 @@
       <c r="J94" s="63"/>
       <c r="K94" s="65"/>
     </row>
-    <row r="95" spans="1:11" s="11" customFormat="1">
+    <row r="95" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5857,7 +5975,7 @@
       <c r="J95" s="63"/>
       <c r="K95" s="65"/>
     </row>
-    <row r="96" spans="1:11" s="11" customFormat="1">
+    <row r="96" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5888,7 +6006,7 @@
       <c r="J96" s="63"/>
       <c r="K96" s="65"/>
     </row>
-    <row r="97" spans="1:11" s="11" customFormat="1">
+    <row r="97" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5919,7 +6037,7 @@
       <c r="J97" s="63"/>
       <c r="K97" s="65"/>
     </row>
-    <row r="98" spans="1:11" s="11" customFormat="1">
+    <row r="98" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5950,7 +6068,7 @@
       <c r="J98" s="63"/>
       <c r="K98" s="65"/>
     </row>
-    <row r="99" spans="1:11" s="11" customFormat="1">
+    <row r="99" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5981,7 +6099,7 @@
       <c r="J99" s="63"/>
       <c r="K99" s="65"/>
     </row>
-    <row r="100" spans="1:11" s="11" customFormat="1">
+    <row r="100" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6012,7 +6130,7 @@
       <c r="J100" s="63"/>
       <c r="K100" s="65"/>
     </row>
-    <row r="101" spans="1:11" s="11" customFormat="1">
+    <row r="101" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6043,7 +6161,7 @@
       <c r="J101" s="63"/>
       <c r="K101" s="65"/>
     </row>
-    <row r="102" spans="1:11" s="11" customFormat="1">
+    <row r="102" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6074,7 +6192,7 @@
       <c r="J102" s="63"/>
       <c r="K102" s="65"/>
     </row>
-    <row r="103" spans="1:11" s="11" customFormat="1">
+    <row r="103" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6105,7 +6223,7 @@
       <c r="J103" s="63"/>
       <c r="K103" s="65"/>
     </row>
-    <row r="104" spans="1:11" s="11" customFormat="1">
+    <row r="104" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6136,7 +6254,7 @@
       <c r="J104" s="63"/>
       <c r="K104" s="65"/>
     </row>
-    <row r="105" spans="1:11" s="11" customFormat="1">
+    <row r="105" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6167,7 +6285,7 @@
       <c r="J105" s="63"/>
       <c r="K105" s="65"/>
     </row>
-    <row r="106" spans="1:11" s="11" customFormat="1">
+    <row r="106" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6198,7 +6316,7 @@
       <c r="J106" s="63"/>
       <c r="K106" s="65"/>
     </row>
-    <row r="107" spans="1:11" s="11" customFormat="1">
+    <row r="107" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6229,7 +6347,7 @@
       <c r="J107" s="63"/>
       <c r="K107" s="65"/>
     </row>
-    <row r="108" spans="1:11" s="11" customFormat="1">
+    <row r="108" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6313,25 +6431,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.1640625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="22"/>
-    <col min="3" max="3" width="13.83203125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="22" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" style="22"/>
+    <col min="1" max="1" width="72.125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="22"/>
+    <col min="3" max="3" width="13.875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="22" customWidth="1"/>
+    <col min="5" max="7" width="10.875" style="22"/>
     <col min="8" max="11" width="11" style="22" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="22"/>
+    <col min="12" max="16384" width="10.875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
         <v>38</v>
       </c>
@@ -6341,7 +6459,7 @@
       <c r="E1" s="93"/>
       <c r="F1" s="94"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>42</v>
       </c>
@@ -6353,7 +6471,7 @@
       <c r="E2" s="97"/>
       <c r="F2" s="32"/>
     </row>
-    <row r="3" spans="1:11" ht="60">
+    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>43</v>
       </c>
@@ -6377,7 +6495,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30">
+    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>44</v>
       </c>
@@ -6405,7 +6523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="76" thickBot="1">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>45</v>
       </c>
@@ -6432,7 +6550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="31" thickBot="1">
+    <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>10</v>
       </c>
@@ -6454,7 +6572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="46" thickBot="1">
+    <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>11</v>
       </c>
@@ -6481,7 +6599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="45">
+    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>53</v>
       </c>
@@ -6500,7 +6618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="45">
+    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>12</v>
       </c>
@@ -6519,7 +6637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="31" thickBot="1">
+    <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>36</v>
       </c>
@@ -6538,7 +6656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I11" s="22" t="s">
         <v>32</v>
       </c>
@@ -6549,7 +6667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16" thickBot="1">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I12" s="22" t="s">
         <v>37</v>
       </c>
@@ -6560,7 +6678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="92" t="s">
         <v>41</v>
       </c>
@@ -6579,7 +6697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -6596,7 +6714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>46</v>
       </c>
@@ -6614,7 +6732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67" customHeight="1">
+    <row r="16" spans="1:11" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>47</v>
       </c>
@@ -6638,7 +6756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32" customHeight="1" thickBot="1">
+    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>44</v>
       </c>
@@ -6659,7 +6777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="76" thickBot="1">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
         <v>48</v>
       </c>
@@ -6680,7 +6798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>10</v>
       </c>
@@ -6699,7 +6817,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="61" thickBot="1">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>51</v>
       </c>
@@ -6721,7 +6839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H21" s="22" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
@@ -6738,122 +6856,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K22" s="22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K23" s="22">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K24" s="22">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K25" s="22">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K26" s="22">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K27" s="22">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K28" s="22">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K29" s="22">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K30" s="22">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K31" s="22">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K32" s="22">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K33" s="22">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K34" s="22">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K35" s="22">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K36" s="22">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11">
+    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K37" s="22">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11">
+    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K38" s="22">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11">
+    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K39" s="22">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11">
+    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K40" s="22">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11">
+    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K41" s="22">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11">
+    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K42" s="22">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11">
+    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K43" s="22">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11">
+    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K44" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11">
+    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K45" s="22" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
@@ -6887,19 +7005,18 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:colOff>1019175</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6908,21 +7025,20 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:colOff>1019175</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6933,19 +7049,18 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6956,19 +7071,18 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6977,13 +7091,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1041400</xdr:colOff>
+                    <xdr:colOff>1038225</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -6991,7 +7105,6 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -7000,13 +7113,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1054100</xdr:colOff>
+                    <xdr:colOff>1057275</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>863600</xdr:colOff>
+                    <xdr:colOff>866775</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -7014,7 +7127,6 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -7023,7 +7135,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -7037,11 +7149,9 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
-    <mc:Fallback/>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -7060,22 +7170,22 @@
       <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="22" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="24.125" style="22" customWidth="1"/>
     <col min="3" max="3" width="17" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="22" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="22" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="27.125" style="22" customWidth="1"/>
     <col min="10" max="10" width="44.5" style="22" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="22"/>
+    <col min="11" max="16384" width="10.875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="107" t="s">
         <v>56</v>
       </c>
@@ -7102,7 +7212,7 @@
       </c>
       <c r="I1" s="106"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="107"/>
       <c r="B2" s="107"/>
       <c r="C2" s="107"/>
@@ -7117,7 +7227,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
+    <row r="3" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>69</v>
       </c>
@@ -7142,7 +7252,7 @@
       </c>
       <c r="I3" s="40"/>
     </row>
-    <row r="4" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
+    <row r="4" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>57</v>
       </c>
@@ -7171,7 +7281,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
+    <row r="5" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>77</v>
       </c>
@@ -7200,7 +7310,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
+    <row r="6" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>58</v>
       </c>
@@ -7229,7 +7339,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
+    <row r="7" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>58</v>
       </c>
@@ -7254,7 +7364,7 @@
       </c>
       <c r="I7" s="42"/>
     </row>
-    <row r="8" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
+    <row r="8" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
         <v>80</v>
       </c>
@@ -7283,7 +7393,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
+    <row r="9" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>82</v>
       </c>
@@ -7312,7 +7422,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
+    <row r="10" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>84</v>
       </c>
@@ -7341,7 +7451,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
+    <row r="11" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
         <v>86</v>
       </c>
@@ -7366,7 +7476,7 @@
       </c>
       <c r="I11" s="42"/>
     </row>
-    <row r="12" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
+    <row r="12" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
         <v>89</v>
       </c>
@@ -7395,7 +7505,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
+    <row r="13" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
         <v>91</v>
       </c>
@@ -7424,7 +7534,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.75" customHeight="1">
+    <row r="14" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>94</v>
       </c>
@@ -7447,7 +7557,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="76" customFormat="1" ht="14.75" customHeight="1">
+    <row r="15" spans="1:10" s="76" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="74" t="s">
         <v>96</v>
       </c>
@@ -7473,7 +7583,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.75" customHeight="1">
+    <row r="16" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
         <v>100</v>
       </c>
@@ -7501,7 +7611,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.75" customHeight="1">
+    <row r="17" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
         <v>103</v>
       </c>
@@ -7529,7 +7639,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.75" customHeight="1">
+    <row r="18" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>184</v>
       </c>
@@ -7555,7 +7665,7 @@
       <c r="I18" s="44"/>
       <c r="J18" s="49"/>
     </row>
-    <row r="19" spans="1:10" ht="14.75" customHeight="1">
+    <row r="19" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>137</v>
       </c>
@@ -7579,7 +7689,7 @@
       <c r="I19" s="44"/>
       <c r="J19" s="49"/>
     </row>
-    <row r="20" spans="1:10" ht="14.75" customHeight="1">
+    <row r="20" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
         <v>137</v>
       </c>
@@ -7603,7 +7713,7 @@
       <c r="I20" s="44"/>
       <c r="J20" s="49"/>
     </row>
-    <row r="21" spans="1:10" ht="14.75" customHeight="1">
+    <row r="21" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
         <v>137</v>
       </c>
@@ -7627,7 +7737,7 @@
       <c r="I21" s="71"/>
       <c r="J21" s="49"/>
     </row>
-    <row r="22" spans="1:10" ht="14.75" customHeight="1">
+    <row r="22" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
         <v>132</v>
       </c>
@@ -7651,7 +7761,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.75" customHeight="1">
+    <row r="23" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>132</v>
       </c>
@@ -7680,7 +7790,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.75" customHeight="1">
+    <row r="24" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
         <v>134</v>
       </c>
@@ -7703,7 +7813,7 @@
       <c r="H24" s="44"/>
       <c r="I24" s="71"/>
     </row>
-    <row r="25" spans="1:10" ht="14.75" customHeight="1">
+    <row r="25" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
         <v>135</v>
       </c>
@@ -7727,7 +7837,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.75" customHeight="1">
+    <row r="26" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
         <v>135</v>
       </c>
@@ -7756,7 +7866,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.75" customHeight="1">
+    <row r="27" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
         <v>138</v>
       </c>
@@ -7780,7 +7890,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.75" customHeight="1">
+    <row r="28" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
         <v>138</v>
       </c>
@@ -7804,7 +7914,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.75" customHeight="1">
+    <row r="29" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
         <v>138</v>
       </c>
@@ -7833,7 +7943,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.75" customHeight="1">
+    <row r="30" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
         <v>139</v>
       </c>
@@ -7856,7 +7966,7 @@
       <c r="H30" s="44"/>
       <c r="I30" s="44"/>
     </row>
-    <row r="31" spans="1:10" ht="14.75" customHeight="1">
+    <row r="31" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>140</v>
       </c>
@@ -7873,7 +7983,7 @@
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
     </row>
-    <row r="32" spans="1:10" ht="14.75" customHeight="1">
+    <row r="32" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
         <v>141</v>
       </c>
@@ -7888,7 +7998,7 @@
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
     </row>
-    <row r="33" spans="1:9" ht="14.75" customHeight="1">
+    <row r="33" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
         <v>136</v>
       </c>
@@ -7909,7 +8019,7 @@
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
     </row>
-    <row r="34" spans="1:9" ht="14.75" customHeight="1">
+    <row r="34" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
         <v>142</v>
       </c>
@@ -7926,7 +8036,7 @@
       <c r="H34" s="44"/>
       <c r="I34" s="44"/>
     </row>
-    <row r="35" spans="1:9" ht="14.75" customHeight="1">
+    <row r="35" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
         <v>95</v>
       </c>
@@ -7955,7 +8065,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.75" customHeight="1">
+    <row r="36" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
         <v>95</v>
       </c>
@@ -7984,7 +8094,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.75" customHeight="1">
+    <row r="37" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
         <v>143</v>
       </c>
@@ -8007,7 +8117,7 @@
       <c r="H37" s="44"/>
       <c r="I37" s="44"/>
     </row>
-    <row r="38" spans="1:9" ht="14.75" customHeight="1">
+    <row r="38" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="42" t="s">
         <v>143</v>
       </c>
@@ -8030,13 +8140,13 @@
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="50" t="s">
         <v>107</v>
       </c>
       <c r="B40" s="50"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="51" t="s">
         <v>108</v>
       </c>
@@ -8050,7 +8160,7 @@
       <c r="E41" s="52"/>
       <c r="F41" s="52"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="54" t="s">
         <v>109</v>
       </c>
@@ -8064,7 +8174,7 @@
       <c r="E42" s="55"/>
       <c r="F42" s="55"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="54" t="s">
         <v>110</v>
       </c>
@@ -8078,7 +8188,7 @@
       <c r="E43" s="55"/>
       <c r="F43" s="55"/>
     </row>
-    <row r="44" spans="1:9" ht="30">
+    <row r="44" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="54" t="s">
         <v>111</v>
       </c>
@@ -8092,7 +8202,7 @@
       <c r="E44" s="55"/>
       <c r="F44" s="55"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
         <v>112</v>
       </c>
@@ -8106,7 +8216,7 @@
       <c r="E45" s="55"/>
       <c r="F45" s="55"/>
     </row>
-    <row r="46" spans="1:9" ht="45">
+    <row r="46" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A46" s="54" t="s">
         <v>162</v>
       </c>
